--- a/teaching/traditional_assets/database/data/ireland/ireland_environmental_waste_services.xlsx
+++ b/teaching/traditional_assets/database/data/ireland/ireland_environmental_waste_services.xlsx
@@ -591,31 +591,31 @@
         </is>
       </c>
       <c r="G2">
-        <v>-0.01552238805970149</v>
+        <v>-0.2262931034482759</v>
       </c>
       <c r="H2">
-        <v>-0.01552238805970149</v>
+        <v>-0.2262931034482759</v>
       </c>
       <c r="I2">
-        <v>-0.1050746268656716</v>
+        <v>-0.6573275862068966</v>
       </c>
       <c r="J2">
-        <v>-0.1050746268656716</v>
+        <v>-0.6573275862068966</v>
       </c>
       <c r="K2">
-        <v>-0.394</v>
+        <v>-1.39</v>
       </c>
       <c r="L2">
-        <v>-0.1176119402985075</v>
+        <v>-0.2995689655172414</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.718</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.1237931034482759</v>
       </c>
       <c r="O2">
-        <v>-0</v>
+        <v>-0.516546762589928</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -627,61 +627,73 @@
         <v>-0</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>0.718</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
       </c>
       <c r="U2">
-        <v>0.105</v>
+        <v>1.13</v>
       </c>
       <c r="V2">
-        <v>0.021875</v>
+        <v>0.1948275862068966</v>
+      </c>
+      <c r="W2">
+        <v>2.260162601626016</v>
       </c>
       <c r="X2">
-        <v>0.08022097891692603</v>
+        <v>0.0601501458654287</v>
+      </c>
+      <c r="Y2">
+        <v>2.200012455760588</v>
+      </c>
+      <c r="Z2">
+        <v>8.498168498168498</v>
+      </c>
+      <c r="AA2">
+        <v>-5.586080586080587</v>
       </c>
       <c r="AB2">
-        <v>0.08022097891692603</v>
+        <v>0.05846780085996194</v>
+      </c>
+      <c r="AC2">
+        <v>-5.644548386940548</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
+        <v>0.38</v>
+      </c>
+      <c r="AG2">
+        <v>-0.7499999999999999</v>
+      </c>
+      <c r="AH2">
+        <v>0.06148867313915858</v>
+      </c>
+      <c r="AI2">
+        <v>0.6333333333333334</v>
+      </c>
+      <c r="AJ2">
+        <v>-0.1485148514851485</v>
+      </c>
+      <c r="AK2">
+        <v>1.415094339622641</v>
+      </c>
+      <c r="AL2">
         <v>0</v>
       </c>
-      <c r="AG2">
-        <v>-0.105</v>
-      </c>
-      <c r="AH2">
+      <c r="AM2">
         <v>0</v>
       </c>
-      <c r="AI2">
-        <v>-0</v>
-      </c>
-      <c r="AJ2">
-        <v>-0.02236421725239617</v>
-      </c>
-      <c r="AK2">
-        <v>0.41015625</v>
-      </c>
-      <c r="AL2">
-        <v>0.042</v>
-      </c>
-      <c r="AM2">
-        <v>0.042</v>
-      </c>
       <c r="AN2">
-        <v>-0</v>
-      </c>
-      <c r="AO2">
-        <v>-8.38095238095238</v>
+        <v>-0.1310344827586207</v>
       </c>
       <c r="AP2">
-        <v>0.3736654804270462</v>
-      </c>
-      <c r="AQ2">
-        <v>-8.38095238095238</v>
+        <v>0.2586206896551724</v>
       </c>
     </row>
     <row r="3">
@@ -701,31 +713,31 @@
         </is>
       </c>
       <c r="G3">
-        <v>-0.01552238805970149</v>
+        <v>-0.2262931034482759</v>
       </c>
       <c r="H3">
-        <v>-0.01552238805970149</v>
+        <v>-0.2262931034482759</v>
       </c>
       <c r="I3">
-        <v>-0.1050746268656716</v>
+        <v>-0.6573275862068966</v>
       </c>
       <c r="J3">
-        <v>-0.1050746268656716</v>
+        <v>-0.6573275862068966</v>
       </c>
       <c r="K3">
-        <v>-0.394</v>
+        <v>-1.39</v>
       </c>
       <c r="L3">
-        <v>-0.1176119402985075</v>
+        <v>-0.2995689655172414</v>
       </c>
       <c r="M3">
-        <v>-0</v>
+        <v>0.718</v>
       </c>
       <c r="N3">
-        <v>-0</v>
+        <v>0.1237931034482759</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>-0.516546762589928</v>
       </c>
       <c r="P3">
         <v>-0</v>
@@ -737,61 +749,73 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.718</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
       </c>
       <c r="U3">
-        <v>0.105</v>
+        <v>1.13</v>
       </c>
       <c r="V3">
-        <v>0.021875</v>
+        <v>0.1948275862068966</v>
+      </c>
+      <c r="W3">
+        <v>2.260162601626016</v>
       </c>
       <c r="X3">
-        <v>0.08022097891692603</v>
+        <v>0.0601501458654287</v>
+      </c>
+      <c r="Y3">
+        <v>2.200012455760588</v>
+      </c>
+      <c r="Z3">
+        <v>8.498168498168498</v>
+      </c>
+      <c r="AA3">
+        <v>-5.586080586080587</v>
       </c>
       <c r="AB3">
-        <v>0.08022097891692603</v>
+        <v>0.05846780085996194</v>
+      </c>
+      <c r="AC3">
+        <v>-5.644548386940548</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
+        <v>0.38</v>
+      </c>
+      <c r="AG3">
+        <v>-0.7499999999999999</v>
+      </c>
+      <c r="AH3">
+        <v>0.06148867313915858</v>
+      </c>
+      <c r="AI3">
+        <v>0.6333333333333334</v>
+      </c>
+      <c r="AJ3">
+        <v>-0.1485148514851485</v>
+      </c>
+      <c r="AK3">
+        <v>1.415094339622641</v>
+      </c>
+      <c r="AL3">
         <v>0</v>
       </c>
-      <c r="AG3">
-        <v>-0.105</v>
-      </c>
-      <c r="AH3">
+      <c r="AM3">
         <v>0</v>
       </c>
-      <c r="AI3">
-        <v>-0</v>
-      </c>
-      <c r="AJ3">
-        <v>-0.02236421725239617</v>
-      </c>
-      <c r="AK3">
-        <v>0.41015625</v>
-      </c>
-      <c r="AL3">
-        <v>0.042</v>
-      </c>
-      <c r="AM3">
-        <v>0.042</v>
-      </c>
       <c r="AN3">
-        <v>-0</v>
-      </c>
-      <c r="AO3">
-        <v>-8.38095238095238</v>
+        <v>-0.1310344827586207</v>
       </c>
       <c r="AP3">
-        <v>0.3736654804270462</v>
-      </c>
-      <c r="AQ3">
-        <v>-8.38095238095238</v>
+        <v>0.2586206896551724</v>
       </c>
     </row>
   </sheetData>
